--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1682.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1682.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.10716490672526</v>
+        <v>0.986533522605896</v>
       </c>
       <c r="B1">
-        <v>2.722530370620628</v>
+        <v>3.978518486022949</v>
       </c>
       <c r="C1">
-        <v>2.014184658381172</v>
+        <v>2.21148157119751</v>
       </c>
       <c r="D1">
-        <v>1.880127280382611</v>
+        <v>1.67676043510437</v>
       </c>
       <c r="E1">
-        <v>1.755419180706249</v>
+        <v>1.301976442337036</v>
       </c>
     </row>
   </sheetData>
